--- a/UnitTests/Tests/Prices.xlsx
+++ b/UnitTests/Tests/Prices.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,12 +116,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -158,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +199,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,7 +443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -410,7 +452,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -462,9 +504,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlMidEquivalent(1,2,3,4)</f>
-        <v>1.5</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlMidEquivalent(1,2,3,4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,9 +520,9 @@
         <f>IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlMidSafe(1,2)</f>
-        <v>1.5</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlMidSafe(1,2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -490,26 +532,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
